--- a/AAII_Financials/Quarterly/AFIB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AFIB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="92">
   <si>
     <t>AFIB</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,42 +665,44 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -710,26 +712,32 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F8" s="3">
         <v>1600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>2800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>800</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
       </c>
@@ -739,26 +747,32 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F9" s="3">
         <v>3200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>9200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>2200</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
       </c>
@@ -768,26 +782,32 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E10" s="3">
         <v>-1600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="G10" s="3">
         <v>-6400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>-1400</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
       </c>
@@ -797,8 +817,14 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -810,26 +836,28 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E12" s="3">
+        <v>8200</v>
+      </c>
+      <c r="F12" s="3">
         <v>8000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>38000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>4400</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
       </c>
@@ -839,8 +867,14 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -868,25 +902,31 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>2200</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
@@ -897,8 +937,14 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -926,8 +972,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -936,26 +988,28 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>29400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>20600</v>
+      </c>
+      <c r="F17" s="3">
         <v>19200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>76900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>10600</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
       </c>
@@ -965,26 +1019,32 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-26200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-17600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-74100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-9800</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
@@ -994,8 +1054,14 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1007,26 +1073,28 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F20" s="3">
         <v>800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>900</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1036,26 +1104,32 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-16200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-72200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-8400</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1065,8 +1139,14 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1074,17 +1154,17 @@
         <v>1400</v>
       </c>
       <c r="E22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G22" s="3">
         <v>22300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>5700</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1094,26 +1174,32 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-31300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-18100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-97000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-14700</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1123,8 +1209,14 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1152,8 +1244,14 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1181,26 +1279,32 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-31300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-18100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-97000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-14700</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1210,26 +1314,32 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-31300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-18100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-97000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-14700</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1239,8 +1349,14 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1268,8 +1384,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1297,8 +1419,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1326,8 +1454,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1355,26 +1489,32 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E32" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-900</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1384,26 +1524,32 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-31300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-18100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-97000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-14700</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1413,8 +1559,14 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1442,26 +1594,32 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-31300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-18100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-97000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-14700</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1471,31 +1629,37 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1505,8 +1669,14 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1518,8 +1688,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1531,20 +1703,22 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>58300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>24300</v>
+      </c>
+      <c r="F41" s="3">
         <v>21000</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1560,20 +1734,26 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>99700</v>
+      </c>
+      <c r="E42" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F42" s="3">
         <v>28900</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1589,20 +1769,26 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E43" s="3">
+        <v>900</v>
+      </c>
+      <c r="F43" s="3">
         <v>1000</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1618,20 +1804,26 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E44" s="3">
+        <v>12300</v>
+      </c>
+      <c r="F44" s="3">
         <v>10500</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1647,20 +1839,26 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E45" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F45" s="3">
         <v>1800</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1676,20 +1874,26 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>175700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>46400</v>
+      </c>
+      <c r="F46" s="3">
         <v>63100</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1705,49 +1909,61 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>8800</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>9600</v>
+      </c>
+      <c r="F48" s="3">
         <v>7600</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1763,20 +1979,26 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E49" s="3">
+        <v>15900</v>
+      </c>
+      <c r="F49" s="3">
         <v>16000</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1792,8 +2014,14 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1821,8 +2049,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1850,20 +2084,26 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>500</v>
+      </c>
+      <c r="E52" s="3">
+        <v>100</v>
+      </c>
+      <c r="F52" s="3">
         <v>400</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1879,8 +2119,14 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1908,20 +2154,26 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>212500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>72000</v>
+      </c>
+      <c r="F54" s="3">
         <v>87100</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1937,8 +2189,14 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1950,8 +2208,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1963,20 +2223,22 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>9100</v>
+      </c>
+      <c r="F57" s="3">
         <v>7500</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1992,20 +2254,26 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F58" s="3">
         <v>3100</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2021,20 +2289,26 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>18700</v>
+      </c>
+      <c r="F59" s="3">
         <v>14200</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2050,20 +2324,26 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>31300</v>
+      </c>
+      <c r="F60" s="3">
         <v>24700</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2079,20 +2359,26 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>42400</v>
+      </c>
+      <c r="E61" s="3">
+        <v>42600</v>
+      </c>
+      <c r="F61" s="3">
         <v>42200</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2108,20 +2394,26 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F62" s="3">
         <v>1800</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2137,8 +2429,14 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2166,8 +2464,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2195,8 +2499,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2224,20 +2534,26 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>59900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>75400</v>
+      </c>
+      <c r="F66" s="3">
         <v>68800</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2253,8 +2569,14 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2266,8 +2588,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2295,8 +2619,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2324,19 +2654,25 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
         <v>260600</v>
       </c>
-      <c r="E70" s="3">
-        <v>0</v>
-      </c>
       <c r="F70" s="3">
-        <v>0</v>
+        <v>260600</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2353,8 +2689,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2382,20 +2724,26 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-331600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-300300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-277100</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2411,8 +2759,14 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2440,8 +2794,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2469,8 +2829,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2498,20 +2864,26 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>152600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-264000</v>
+      </c>
+      <c r="F76" s="3">
         <v>-242200</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2527,8 +2899,14 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2556,31 +2934,37 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2590,26 +2974,32 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-31300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-18100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-97000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-14700</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2619,8 +3009,14 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2632,26 +3028,28 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>900</v>
+      </c>
+      <c r="E83" s="3">
+        <v>700</v>
+      </c>
+      <c r="F83" s="3">
         <v>500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>2500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>600</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2661,8 +3059,14 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2690,8 +3094,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2719,8 +3129,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2748,8 +3164,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2777,8 +3199,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2806,26 +3234,32 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-26300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-17600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-56000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-9600</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2835,8 +3269,14 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2848,25 +3288,27 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F91" s="3">
         <v>-1700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-3400</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -2877,8 +3319,14 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2906,8 +3354,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2935,26 +3389,32 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-106900</v>
+      </c>
+      <c r="E94" s="3">
+        <v>20900</v>
+      </c>
+      <c r="F94" s="3">
         <v>31700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-70400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>8100</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
@@ -2964,8 +3424,14 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2977,8 +3443,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3006,8 +3474,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3035,8 +3509,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3064,8 +3544,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3093,25 +3579,31 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>167100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F100" s="3">
         <v>-2600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>126300</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
+      <c r="H100" s="3">
+        <v>0</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3122,25 +3614,31 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E101" s="3">
+        <v>100</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
+      <c r="H101" s="3">
+        <v>0</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
@@ -3151,26 +3649,32 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F102" s="3">
         <v>11500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-1500</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3178,6 +3682,12 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AFIB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AFIB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="92">
   <si>
     <t>AFIB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,47 +665,47 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -718,29 +718,32 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E8" s="3">
         <v>3200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>800</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
@@ -753,29 +756,32 @@
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E9" s="3">
         <v>5100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>9200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2200</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
@@ -788,29 +794,32 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E10" s="3">
         <v>-1900</v>
-      </c>
-      <c r="E10" s="3">
-        <v>-1600</v>
       </c>
       <c r="F10" s="3">
         <v>-1600</v>
       </c>
       <c r="G10" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="H10" s="3">
         <v>-6400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-1400</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
@@ -823,8 +832,11 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -838,29 +850,30 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E12" s="3">
         <v>8300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>8200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>8000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>38000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>4400</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
@@ -873,8 +886,11 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -908,28 +924,31 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>2200</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
@@ -943,8 +962,11 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -978,8 +1000,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -990,29 +1015,30 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>30600</v>
+      </c>
+      <c r="E17" s="3">
         <v>29400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>20600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>19200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>76900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>10600</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1025,29 +1051,32 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-26200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-19500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-17600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-74100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-9800</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1060,8 +1089,11 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1075,29 +1107,30 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>900</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1110,29 +1143,32 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-26800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-29000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-21200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-16200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-72200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-8400</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1145,8 +1181,11 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1160,14 +1199,14 @@
         <v>1400</v>
       </c>
       <c r="G22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H22" s="3">
         <v>22300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>5700</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1180,29 +1219,32 @@
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-29400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-31300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-23200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-18100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-97000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-14700</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1215,19 +1257,22 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
+      <c r="E24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -1238,8 +1283,8 @@
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="J24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1250,8 +1295,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1285,29 +1333,32 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-29400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-31300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-23200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-18100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-97000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-14700</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1320,29 +1371,32 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-29400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-31300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-23200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-18100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-97000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-14700</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1355,8 +1409,11 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1390,8 +1447,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1425,8 +1485,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1460,8 +1523,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1495,29 +1561,32 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>3700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-900</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1530,29 +1599,32 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-29400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-31300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-23200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-18100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-97000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-14700</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1565,8 +1637,11 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1600,29 +1675,32 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-29400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-31300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-23200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-18100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-97000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-14700</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1635,34 +1713,37 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1675,8 +1756,11 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1690,8 +1774,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1705,23 +1790,24 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>25200</v>
+      </c>
+      <c r="E41" s="3">
         <v>58300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>24300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>21000</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1740,23 +1826,26 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>105800</v>
+      </c>
+      <c r="E42" s="3">
         <v>99700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>5000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>28900</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1775,23 +1864,26 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E43" s="3">
         <v>1900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1000</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1810,23 +1902,26 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E44" s="3">
         <v>10900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>12300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>10500</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1845,23 +1940,26 @@
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E45" s="3">
         <v>4800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1800</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1880,23 +1978,26 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>151400</v>
+      </c>
+      <c r="E46" s="3">
         <v>175700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>46400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>63100</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1915,17 +2016,20 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E47" s="3">
         <v>8800</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1941,8 +2045,8 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -1950,23 +2054,26 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E48" s="3">
         <v>11800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>9600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>7600</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1985,23 +2092,26 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E49" s="3">
         <v>15800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>15900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>16000</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2020,8 +2130,11 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2055,8 +2168,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2090,23 +2206,26 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>700</v>
+      </c>
+      <c r="E52" s="3">
         <v>500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>400</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2125,8 +2244,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2160,23 +2282,26 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>192500</v>
+      </c>
+      <c r="E54" s="3">
         <v>212500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>72000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>87100</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2195,8 +2320,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2210,8 +2338,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2225,23 +2354,24 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E57" s="3">
         <v>4700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>9100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>7500</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2260,23 +2390,26 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E58" s="3">
         <v>4000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3100</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2295,23 +2428,26 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E59" s="3">
         <v>7400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>18700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>14200</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2330,23 +2466,26 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>21900</v>
+      </c>
+      <c r="E60" s="3">
         <v>16100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>31300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>24700</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2365,23 +2504,26 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>42900</v>
+      </c>
+      <c r="E61" s="3">
         <v>42400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>42600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>42200</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2400,23 +2542,26 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E62" s="3">
         <v>1400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1800</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2435,8 +2580,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2470,8 +2618,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2505,8 +2656,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2540,23 +2694,26 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>66000</v>
+      </c>
+      <c r="E66" s="3">
         <v>59900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>75400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>68800</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2575,8 +2732,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2590,8 +2750,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2625,8 +2786,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2660,8 +2824,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2669,13 +2836,13 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>260600</v>
+        <v>0</v>
       </c>
       <c r="F70" s="3">
         <v>260600</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>260600</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2695,8 +2862,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2730,23 +2900,26 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-361000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-331600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-300300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-277100</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2765,8 +2938,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2800,8 +2976,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2835,8 +3014,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2870,23 +3052,26 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>126600</v>
+      </c>
+      <c r="E76" s="3">
         <v>152600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-264000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-242200</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2905,8 +3090,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2940,34 +3128,37 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2980,29 +3171,32 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-29400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-31300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-23200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-18100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-97000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-14700</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3015,8 +3209,11 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3030,29 +3227,30 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E83" s="3">
         <v>900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>600</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3065,8 +3263,11 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3100,8 +3301,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3135,8 +3339,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3170,8 +3377,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3205,8 +3415,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3240,29 +3453,32 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-26300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-17200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-17600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-56000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-9600</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3275,8 +3491,11 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3290,8 +3509,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3299,19 +3519,19 @@
         <v>-3400</v>
       </c>
       <c r="E91" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F91" s="3">
         <v>-2800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3400</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -3325,8 +3545,11 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3360,8 +3583,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3395,29 +3621,32 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-106900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>20900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>31700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-70400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>8100</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3430,8 +3659,11 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3445,8 +3677,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3480,8 +3713,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3515,8 +3751,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3550,8 +3789,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3585,28 +3827,31 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
         <v>167100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>126300</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
+      <c r="I100" s="3">
+        <v>0</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3620,28 +3865,31 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E101" s="3">
         <v>100</v>
       </c>
       <c r="F101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
+      <c r="I101" s="3">
+        <v>0</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
@@ -3655,29 +3903,32 @@
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-33100</v>
+      </c>
+      <c r="E102" s="3">
         <v>34000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>3300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>11500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1500</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3688,6 +3939,9 @@
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AFIB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AFIB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="92">
   <si>
     <t>AFIB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,50 +665,51 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
@@ -721,32 +722,35 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E8" s="3">
         <v>2600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>800</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
@@ -759,32 +763,35 @@
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E9" s="3">
         <v>4900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>5100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>9200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2200</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
@@ -797,32 +804,35 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E10" s="3">
         <v>-2300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-1900</v>
-      </c>
-      <c r="F10" s="3">
-        <v>-1600</v>
       </c>
       <c r="G10" s="3">
         <v>-1600</v>
       </c>
       <c r="H10" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="I10" s="3">
         <v>-6400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-1400</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
@@ -835,8 +845,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -851,32 +864,33 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E12" s="3">
         <v>9000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>8300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>8200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>8000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>38000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>4400</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
@@ -889,8 +903,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -927,31 +944,34 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>2200</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
@@ -965,8 +985,11 @@
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1003,8 +1026,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1016,32 +1042,33 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>31400</v>
+      </c>
+      <c r="E17" s="3">
         <v>30600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>29400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>20600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>19200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>76900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>10600</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1054,32 +1081,35 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-27800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-28000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-26200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-19500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-17600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-74100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-9800</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1092,8 +1122,11 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1108,8 +1141,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1117,23 +1151,23 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-3700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>900</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1146,32 +1180,35 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-26400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-26800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-29000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-21200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-16200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-72200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-8400</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1184,8 +1221,11 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1202,14 +1242,14 @@
         <v>1400</v>
       </c>
       <c r="H22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I22" s="3">
         <v>22300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>5700</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1222,32 +1262,35 @@
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-29200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-29400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-31300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-23200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-18100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-97000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-14700</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1260,22 +1303,25 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>3</v>
+      <c r="E24" s="3">
+        <v>0</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
+      <c r="G24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1283,11 +1329,11 @@
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -1298,8 +1344,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1336,32 +1385,35 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-29200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-29400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-31300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-23200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-18100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-97000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-14700</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1374,32 +1426,35 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-29200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-29400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-31300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-23200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-18100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-97000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-14700</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1412,8 +1467,11 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1450,8 +1508,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1488,8 +1549,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1526,8 +1590,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1564,8 +1631,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1573,23 +1643,23 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>3700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-900</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1602,32 +1672,35 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-29200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-29400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-31300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-23200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-18100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-97000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-14700</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1640,8 +1713,11 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1678,32 +1754,35 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-29200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-29400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-31300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-23200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-18100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-97000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-14700</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1716,37 +1795,40 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1759,8 +1841,11 @@
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1775,8 +1860,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1791,26 +1877,27 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E41" s="3">
         <v>25200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>58300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>24300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>21000</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1829,26 +1916,29 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>86900</v>
+      </c>
+      <c r="E42" s="3">
         <v>105800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>99700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>5000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>28900</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1867,26 +1957,29 @@
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E43" s="3">
         <v>2200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1000</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1905,26 +1998,29 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E44" s="3">
         <v>13000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>10900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>12300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>10500</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1943,26 +2039,29 @@
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E45" s="3">
         <v>5200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1800</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1981,26 +2080,29 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>116100</v>
+      </c>
+      <c r="E46" s="3">
         <v>151400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>175700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>46400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>63100</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2019,20 +2121,23 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E47" s="3">
         <v>8700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>8800</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2048,8 +2153,8 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2057,26 +2162,29 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E48" s="3">
         <v>14000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>11800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>9600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>7600</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2095,26 +2203,29 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E49" s="3">
         <v>17700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>15800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>15900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>16000</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2133,8 +2244,11 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2171,8 +2285,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2209,26 +2326,29 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E52" s="3">
         <v>700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>400</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2247,8 +2367,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2285,26 +2408,29 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>161900</v>
+      </c>
+      <c r="E54" s="3">
         <v>192500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>212500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>72000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>87100</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2323,8 +2449,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2339,8 +2468,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2355,26 +2485,27 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E57" s="3">
         <v>8300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>9100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>7500</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2393,26 +2524,29 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E58" s="3">
         <v>5400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3100</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2431,26 +2565,29 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E59" s="3">
         <v>8200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>18700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>14200</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2469,26 +2606,29 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E60" s="3">
         <v>21900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>16100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>31300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>24700</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2507,26 +2647,29 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>42300</v>
+      </c>
+      <c r="E61" s="3">
         <v>42900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>42400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>42600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>42200</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2545,26 +2688,29 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>900</v>
+      </c>
+      <c r="E62" s="3">
         <v>1100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1800</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2583,8 +2729,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2621,8 +2770,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2659,8 +2811,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2697,26 +2852,29 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>61700</v>
+      </c>
+      <c r="E66" s="3">
         <v>66000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>59900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>75400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>68800</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2735,8 +2893,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2751,8 +2912,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2789,8 +2951,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2827,8 +2992,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2839,13 +3007,13 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>260600</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
         <v>260600</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>260600</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2865,8 +3033,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2903,26 +3074,29 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-390200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-361000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-331600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-300300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-277100</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2941,8 +3115,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2979,8 +3156,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3017,8 +3197,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3055,26 +3238,29 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>100300</v>
+      </c>
+      <c r="E76" s="3">
         <v>126600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>152600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-264000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-242200</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3093,8 +3279,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3131,37 +3320,40 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3174,32 +3366,35 @@
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-29200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-29400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-31300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-23200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-18100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-97000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-14700</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3212,8 +3407,11 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3228,32 +3426,33 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E83" s="3">
         <v>1100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>600</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3266,8 +3465,11 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3304,8 +3506,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3342,8 +3547,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3380,8 +3588,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3418,8 +3629,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3456,32 +3670,35 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-26300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-24100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-26300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-17200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-17600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-56000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-9600</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3494,8 +3711,11 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3510,31 +3730,32 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3400</v>
+        <v>-3700</v>
       </c>
       <c r="E91" s="3">
         <v>-3400</v>
       </c>
       <c r="F91" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="G91" s="3">
         <v>-2800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3400</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3548,8 +3769,11 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3586,8 +3810,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3624,32 +3851,35 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-9600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-106900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>20900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>31700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-70400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>8100</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3662,8 +3892,11 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3678,8 +3911,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3716,8 +3950,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3754,8 +3991,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3792,8 +4032,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3830,31 +4073,34 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>167100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>126300</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3868,31 +4114,34 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
         <v>200</v>
-      </c>
-      <c r="E101" s="3">
-        <v>100</v>
       </c>
       <c r="F101" s="3">
         <v>100</v>
       </c>
       <c r="G101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
@@ -3906,32 +4155,35 @@
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-33100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>34000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>11500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1500</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3942,6 +4194,9 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AFIB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AFIB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="92">
   <si>
     <t>AFIB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,54 +665,55 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
@@ -725,35 +726,38 @@
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E8" s="3">
         <v>3600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>800</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
@@ -766,35 +770,38 @@
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E9" s="3">
         <v>7000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>5100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>9200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2200</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
@@ -807,35 +814,38 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E10" s="3">
         <v>-3400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-2300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-1900</v>
-      </c>
-      <c r="G10" s="3">
-        <v>-1600</v>
       </c>
       <c r="H10" s="3">
         <v>-1600</v>
       </c>
       <c r="I10" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="J10" s="3">
         <v>-6400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-1400</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
@@ -848,8 +858,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -865,35 +878,36 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E12" s="3">
         <v>9400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>9000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>8300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>8200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>8000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>38000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>4400</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
@@ -906,8 +920,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -947,34 +964,37 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>2200</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
@@ -988,8 +1008,11 @@
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1029,8 +1052,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1043,35 +1069,36 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E17" s="3">
         <v>31400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>30600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>29400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>20600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>19200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>76900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>10600</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1084,35 +1111,38 @@
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-27300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-27800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-28000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-26200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-19500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-17600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-74100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-9800</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1125,8 +1155,11 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1142,8 +1175,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1154,23 +1188,23 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-3700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>900</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1183,35 +1217,38 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-25600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-26400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-26800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-29000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-21200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-16200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-72200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-8400</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1224,13 +1261,16 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="E22" s="3">
         <v>1400</v>
@@ -1245,14 +1285,14 @@
         <v>1400</v>
       </c>
       <c r="I22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J22" s="3">
         <v>22300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>5700</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1265,35 +1305,38 @@
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-28700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-29200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-29400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-31300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-23200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-18100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-97000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-14700</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1306,8 +1349,11 @@
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1317,14 +1363,14 @@
       <c r="E24" s="3">
         <v>0</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
+      <c r="F24" s="3">
+        <v>0</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
+      <c r="H24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -1332,11 +1378,11 @@
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1347,8 +1393,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1388,35 +1437,38 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-28700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-29200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-29400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-31300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-23200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-18100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-97000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-14700</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1429,35 +1481,38 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-28700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-29200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-29400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-31300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-23200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-18100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-97000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-14700</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1470,8 +1525,11 @@
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1511,8 +1569,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1552,8 +1613,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1593,8 +1657,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1634,8 +1701,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1646,23 +1716,23 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>3700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-900</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1675,35 +1745,38 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-28700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-29200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-29400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-31300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-23200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-18100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-97000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-14700</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1716,8 +1789,11 @@
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1757,35 +1833,38 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-28700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-29200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-29400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-31300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-23200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-18100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-97000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-14700</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1798,40 +1877,43 @@
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1844,8 +1926,11 @@
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1861,8 +1946,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1878,29 +1964,30 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E41" s="3">
         <v>8600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>25200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>58300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>24300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>21000</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1919,29 +2006,32 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>73900</v>
+      </c>
+      <c r="E42" s="3">
         <v>86900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>105800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>99700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>5000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>28900</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1960,29 +2050,32 @@
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E43" s="3">
         <v>2500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1000</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2001,29 +2094,32 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E44" s="3">
         <v>13800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>13000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>10900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>12300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>10500</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2042,29 +2138,32 @@
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E45" s="3">
         <v>4300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1800</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2083,29 +2182,32 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>102100</v>
+      </c>
+      <c r="E46" s="3">
         <v>116100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>151400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>175700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>46400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>63100</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2124,23 +2226,26 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
         <v>11200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>8700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>8800</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2156,8 +2261,8 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -2165,29 +2270,32 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E48" s="3">
         <v>16100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>14000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>11800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>9600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>7600</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2206,29 +2314,32 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E49" s="3">
         <v>17500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>17700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>15800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>15900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>16000</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2247,8 +2358,11 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2288,8 +2402,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2329,8 +2446,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2338,20 +2458,20 @@
         <v>1000</v>
       </c>
       <c r="E52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F52" s="3">
         <v>700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>400</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2370,8 +2490,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2411,29 +2534,32 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>140600</v>
+      </c>
+      <c r="E54" s="3">
         <v>161900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>192500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>212500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>72000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>87100</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2452,8 +2578,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2469,8 +2598,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2486,29 +2616,30 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E57" s="3">
         <v>6100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>8300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>9100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>7500</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2527,29 +2658,32 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E58" s="3">
         <v>2600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3100</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2568,29 +2702,32 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E59" s="3">
         <v>9800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>8200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>18700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>14200</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2609,29 +2746,32 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E60" s="3">
         <v>18500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>21900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>16100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>31300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>24700</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2650,29 +2790,32 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>42100</v>
+      </c>
+      <c r="E61" s="3">
         <v>42300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>42900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>42400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>42600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>42200</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2691,29 +2834,32 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E62" s="3">
         <v>900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1800</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2732,8 +2878,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2773,8 +2922,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2814,8 +2966,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2855,29 +3010,32 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>64700</v>
+      </c>
+      <c r="E66" s="3">
         <v>61700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>66000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>59900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>75400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>68800</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2896,8 +3054,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2913,8 +3074,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2954,8 +3116,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2995,8 +3160,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3010,13 +3178,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>260600</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
         <v>260600</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>260600</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -3036,8 +3204,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3077,29 +3248,32 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-418900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-390200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-361000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-331600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-300300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-277100</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3118,8 +3292,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3159,8 +3336,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3200,8 +3380,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3241,29 +3424,32 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>75900</v>
+      </c>
+      <c r="E76" s="3">
         <v>100300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>126600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>152600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-264000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-242200</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3282,8 +3468,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3323,40 +3512,43 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3369,35 +3561,38 @@
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-28700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-29200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-29400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-31300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-23200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-18100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-97000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-14700</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3410,8 +3605,11 @@
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3427,35 +3625,36 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E83" s="3">
         <v>1400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>600</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3468,8 +3667,11 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3509,8 +3711,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3550,8 +3755,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3591,8 +3799,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3632,8 +3843,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3673,35 +3887,38 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-26300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-24100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-26300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-17200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-17600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-56000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-9600</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3714,8 +3931,11 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3731,34 +3951,35 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3700</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-3400</v>
       </c>
       <c r="F91" s="3">
         <v>-3400</v>
       </c>
       <c r="G91" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="H91" s="3">
         <v>-2800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3400</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
@@ -3772,8 +3993,11 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3813,8 +4037,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3854,35 +4081,38 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>21900</v>
+      </c>
+      <c r="E94" s="3">
         <v>12200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-9600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-106900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>20900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>31700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-70400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>8100</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3895,8 +4125,11 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3912,8 +4145,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3953,8 +4187,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3994,8 +4231,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4035,8 +4275,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4076,34 +4319,37 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>167100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>126300</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
+      <c r="K100" s="3">
+        <v>0</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
@@ -4117,34 +4363,37 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>200</v>
-      </c>
-      <c r="F101" s="3">
-        <v>100</v>
       </c>
       <c r="G101" s="3">
         <v>100</v>
       </c>
       <c r="H101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
+      <c r="K101" s="3">
+        <v>0</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
@@ -4158,35 +4407,38 @@
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-16600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-33100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>34000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>11500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1500</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4197,6 +4449,9 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AFIB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AFIB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="92">
   <si>
     <t>AFIB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,58 +665,59 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
@@ -729,38 +730,41 @@
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E8" s="3">
         <v>4700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>800</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
@@ -773,38 +777,41 @@
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E9" s="3">
         <v>7500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>7000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>5100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>9200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2200</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
@@ -817,38 +824,41 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E10" s="3">
         <v>-2800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-3400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-2300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-1900</v>
-      </c>
-      <c r="H10" s="3">
-        <v>-1600</v>
       </c>
       <c r="I10" s="3">
         <v>-1600</v>
       </c>
       <c r="J10" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="K10" s="3">
         <v>-6400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-1400</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
@@ -861,8 +871,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -879,38 +892,39 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E12" s="3">
         <v>9200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>9400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>9000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>8300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>8200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>8000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>38000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>4400</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
@@ -923,8 +937,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -967,8 +984,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -978,26 +998,26 @@
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>2200</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
@@ -1011,8 +1031,11 @@
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1055,8 +1078,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1070,38 +1096,39 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>31700</v>
+      </c>
+      <c r="E17" s="3">
         <v>32000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>31400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>30600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>29400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>20600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>19200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>76900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10600</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1114,38 +1141,41 @@
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-27100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-27300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-27800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-28000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-26200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-19500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-17600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-74100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-9800</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1158,8 +1188,11 @@
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1176,8 +1209,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1191,23 +1225,23 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-3700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>900</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1220,38 +1254,41 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-25400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-25600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-26400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-26800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-29000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-21200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-16200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-72200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-8400</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1264,16 +1301,19 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E22" s="3">
         <v>1500</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1400</v>
       </c>
       <c r="F22" s="3">
         <v>1400</v>
@@ -1288,14 +1328,14 @@
         <v>1400</v>
       </c>
       <c r="J22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K22" s="3">
         <v>22300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>5700</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1308,38 +1348,41 @@
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-28500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-28700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-29200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-29400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-31300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-23200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-18100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-97000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-14700</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1352,8 +1395,11 @@
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1366,14 +1412,14 @@
       <c r="F24" s="3">
         <v>0</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
+      <c r="G24" s="3">
+        <v>0</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
+      <c r="I24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
@@ -1381,11 +1427,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -1396,8 +1442,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1440,38 +1489,41 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-28500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-28700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-29200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-29400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-31300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-23200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-18100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-97000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-14700</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1484,38 +1536,41 @@
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-28500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-28700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-29200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-29400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-31300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-23200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-18100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-97000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-14700</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1528,8 +1583,11 @@
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1572,8 +1630,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1616,8 +1677,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1660,8 +1724,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1704,8 +1771,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1719,23 +1789,23 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>3700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-900</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1748,38 +1818,41 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-28500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-28700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-29200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-29400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-31300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-23200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-18100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-97000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-14700</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1792,8 +1865,11 @@
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1836,38 +1912,41 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-28500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-28700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-29200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-29400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-31300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-23200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-18100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-97000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-14700</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1880,43 +1959,46 @@
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1929,8 +2011,11 @@
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1947,8 +2032,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1965,32 +2051,33 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>58500</v>
+      </c>
+      <c r="E41" s="3">
         <v>7100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>25200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>58300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>24300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>21000</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2009,32 +2096,35 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>72000</v>
+      </c>
+      <c r="E42" s="3">
         <v>73900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>86900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>105800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>99700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>5000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>28900</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2053,32 +2143,35 @@
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E43" s="3">
         <v>3400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1000</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2097,32 +2190,35 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E44" s="3">
         <v>14700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>13800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>13000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>10900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>12300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>10500</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2141,32 +2237,35 @@
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E45" s="3">
         <v>3000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1800</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2185,32 +2284,35 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>155800</v>
+      </c>
+      <c r="E46" s="3">
         <v>102100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>116100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>151400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>175700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>46400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>63100</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2229,26 +2331,29 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>4100</v>
       </c>
       <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
         <v>11200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>8700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>8800</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2264,8 +2369,8 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -2273,32 +2378,35 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E48" s="3">
         <v>20200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>16100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>14000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>11800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>9600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>7600</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2317,32 +2425,35 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>17200</v>
+      </c>
+      <c r="E49" s="3">
         <v>17400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>17500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>17700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>15800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>15900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>16000</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2361,8 +2472,11 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2405,8 +2519,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2449,32 +2566,35 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="E52" s="3">
         <v>1000</v>
       </c>
       <c r="F52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G52" s="3">
         <v>700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>400</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2493,8 +2613,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2537,32 +2660,35 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>197400</v>
+      </c>
+      <c r="E54" s="3">
         <v>140600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>161900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>192500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>212500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>72000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>87100</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2581,8 +2707,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2599,8 +2728,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2617,32 +2747,33 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E57" s="3">
         <v>5800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>8300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>9100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>7500</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2661,32 +2792,35 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E58" s="3">
         <v>2700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3100</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2705,32 +2839,35 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E59" s="3">
         <v>9400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>9800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>8200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>18700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>14200</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2749,32 +2886,35 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E60" s="3">
         <v>17900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>18500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>21900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>16100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>31300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>24700</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2793,32 +2933,35 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>40800</v>
+      </c>
+      <c r="E61" s="3">
         <v>42100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>42300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>42900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>42400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>42600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>42200</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2837,32 +2980,35 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E62" s="3">
         <v>4800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1800</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2881,8 +3027,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2925,8 +3074,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2969,8 +3121,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3013,32 +3168,35 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>63700</v>
+      </c>
+      <c r="E66" s="3">
         <v>64700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>61700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>66000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>59900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>75400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>68800</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3057,8 +3215,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3075,8 +3236,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3119,8 +3281,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3163,8 +3328,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3181,13 +3349,13 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>260600</v>
+        <v>0</v>
       </c>
       <c r="I70" s="3">
         <v>260600</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>260600</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -3207,8 +3375,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3251,32 +3422,35 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-447400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-418900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-390200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-361000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-331600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-300300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-277100</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3295,8 +3469,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3339,8 +3516,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3383,8 +3563,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3427,32 +3610,35 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>133700</v>
+      </c>
+      <c r="E76" s="3">
         <v>75900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>100300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>126600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>152600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-264000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-242200</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3471,8 +3657,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3515,43 +3704,46 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3564,38 +3756,41 @@
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-28500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-28700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-29200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-29400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-31300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-23200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-18100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-97000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-14700</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3608,8 +3803,11 @@
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3626,38 +3824,39 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E83" s="3">
         <v>1700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>600</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3670,8 +3869,11 @@
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3714,8 +3916,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3758,8 +3963,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3802,8 +4010,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3846,8 +4057,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3890,38 +4104,41 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-23600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-26300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-24100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-26300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-17200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-17600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-56000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-9600</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3934,8 +4151,11 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3952,37 +4172,38 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3700</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-3400</v>
       </c>
       <c r="G91" s="3">
         <v>-3400</v>
       </c>
       <c r="H91" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="I91" s="3">
         <v>-2800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3400</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
@@ -3996,8 +4217,11 @@
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4040,8 +4264,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4084,38 +4311,41 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E94" s="3">
         <v>21900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>12200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-9600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-106900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>20900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>31700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-70400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>8100</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4128,8 +4358,11 @@
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4146,8 +4379,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4190,8 +4424,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4234,8 +4471,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4278,8 +4518,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4322,37 +4565,40 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>82200</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>167100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>126300</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
+      <c r="L100" s="3">
+        <v>0</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
@@ -4366,37 +4612,40 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>200</v>
-      </c>
-      <c r="G101" s="3">
-        <v>100</v>
       </c>
       <c r="H101" s="3">
         <v>100</v>
       </c>
       <c r="I101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
+      <c r="L101" s="3">
+        <v>0</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>3</v>
@@ -4410,38 +4659,41 @@
       <c r="P101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>51400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-16600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-33100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>34000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>11500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1500</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4452,6 +4704,9 @@
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AFIB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AFIB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="92">
   <si>
     <t>AFIB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,62 +665,62 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
@@ -733,41 +733,44 @@
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E8" s="3">
         <v>4600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>800</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
@@ -780,41 +783,44 @@
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E9" s="3">
         <v>8500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>7500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>7000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>5100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>9200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2200</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
@@ -827,41 +833,44 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E10" s="3">
         <v>-3900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-2800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-3400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-2300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-1900</v>
-      </c>
-      <c r="I10" s="3">
-        <v>-1600</v>
       </c>
       <c r="J10" s="3">
         <v>-1600</v>
       </c>
       <c r="K10" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="L10" s="3">
         <v>-6400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-1400</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
@@ -874,8 +883,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -893,41 +905,42 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E12" s="3">
         <v>9300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>9200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>9400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>9000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>8300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>8200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>8000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>38000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>4400</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
@@ -940,8 +953,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -987,8 +1003,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1001,26 +1020,26 @@
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>2200</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
@@ -1034,8 +1053,11 @@
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1081,8 +1103,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1097,41 +1122,42 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>34300</v>
+      </c>
+      <c r="E17" s="3">
         <v>31700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>32000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>31400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>30600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>29400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>20600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>19200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>76900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10600</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1144,41 +1170,44 @@
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-29900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-27100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-27300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-27800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-28000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-26200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-19500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-17600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-74100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-9800</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1191,8 +1220,11 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1210,8 +1242,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1228,23 +1261,23 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-3700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>900</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1257,41 +1290,44 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-28200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-25400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-25600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-26400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-26800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-29000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-21200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-16200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-72200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-8400</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1304,8 +1340,11 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1313,10 +1352,10 @@
         <v>1400</v>
       </c>
       <c r="E22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F22" s="3">
         <v>1500</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1400</v>
       </c>
       <c r="G22" s="3">
         <v>1400</v>
@@ -1331,14 +1370,14 @@
         <v>1400</v>
       </c>
       <c r="K22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L22" s="3">
         <v>22300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>5700</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1351,41 +1390,44 @@
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-31300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-28500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-28700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-29200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-29400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-31300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-23200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-18100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-97000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-14700</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1398,8 +1440,11 @@
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1415,14 +1460,14 @@
       <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
+      <c r="H24" s="3">
+        <v>0</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="J24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1430,11 +1475,11 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
@@ -1445,8 +1490,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1492,41 +1540,44 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-31300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-28500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-28700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-29200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-29400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-31300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-23200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-18100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-97000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-14700</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1539,41 +1590,44 @@
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-31300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-28500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-28700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-29200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-29400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-31300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-23200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-18100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-97000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-14700</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1586,8 +1640,11 @@
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1633,8 +1690,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1680,8 +1740,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1727,8 +1790,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1774,8 +1840,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1792,23 +1861,23 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>3700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-900</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1821,41 +1890,44 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-31300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-28500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-28700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-29200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-29400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-31300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-23200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-18100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-97000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-14700</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1868,8 +1940,11 @@
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1915,41 +1990,44 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-31300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-28500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-28700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-29200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-29400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-31300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-23200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-18100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-97000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-14700</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1962,46 +2040,49 @@
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2014,8 +2095,11 @@
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2033,8 +2117,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2052,35 +2137,36 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E41" s="3">
         <v>58500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>25200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>58300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>24300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>21000</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2099,35 +2185,38 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>76700</v>
+      </c>
+      <c r="E42" s="3">
         <v>72000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>73900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>86900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>105800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>99700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>5000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>28900</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2146,35 +2235,38 @@
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E43" s="3">
         <v>4200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1000</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2193,35 +2285,38 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E44" s="3">
         <v>15000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>14700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>13800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>13000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>10900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>12300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>10500</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2240,35 +2335,38 @@
       <c r="Q44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E45" s="3">
         <v>6200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1800</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2287,35 +2385,38 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>126300</v>
+      </c>
+      <c r="E46" s="3">
         <v>155800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>102100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>116100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>151400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>175700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>46400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>63100</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2334,29 +2435,32 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E47" s="3">
         <v>4100</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
       <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
         <v>11200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>8700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>8800</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2372,8 +2476,8 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -2381,35 +2485,38 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E48" s="3">
         <v>19300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>20200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>16100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>14000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>11800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>9600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>7600</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2428,35 +2535,38 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E49" s="3">
         <v>17200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>17400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>17500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>17700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>15800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>15900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>16000</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2475,8 +2585,11 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2522,8 +2635,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2569,35 +2685,38 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E52" s="3">
         <v>1100</v>
-      </c>
-      <c r="E52" s="3">
-        <v>1000</v>
       </c>
       <c r="F52" s="3">
         <v>1000</v>
       </c>
       <c r="G52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H52" s="3">
         <v>700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>400</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2616,8 +2735,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2663,35 +2785,38 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>169800</v>
+      </c>
+      <c r="E54" s="3">
         <v>197400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>140600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>161900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>192500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>212500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>72000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>87100</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2710,8 +2835,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2729,8 +2857,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2748,35 +2877,36 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E57" s="3">
         <v>6400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>8300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>9100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>7500</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2795,35 +2925,38 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E58" s="3">
         <v>1900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3100</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2842,35 +2975,38 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E59" s="3">
         <v>9900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>9400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>9800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>8200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>18700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>14200</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2889,35 +3025,38 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E60" s="3">
         <v>18200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>17900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>18500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>21900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>16100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>31300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>24700</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2936,35 +3075,38 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>40900</v>
+      </c>
+      <c r="E61" s="3">
         <v>40800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>42100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>42300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>42900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>42400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>42600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>42200</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2983,35 +3125,38 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E62" s="3">
         <v>4700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1800</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3030,8 +3175,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3077,8 +3225,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3124,8 +3275,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3171,35 +3325,38 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>64100</v>
+      </c>
+      <c r="E66" s="3">
         <v>63700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>64700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>61700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>66000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>59900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>75400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>68800</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3218,8 +3375,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3237,8 +3397,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3284,8 +3445,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3331,8 +3495,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3352,13 +3519,13 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>260600</v>
+        <v>0</v>
       </c>
       <c r="J70" s="3">
         <v>260600</v>
       </c>
       <c r="K70" s="3">
-        <v>0</v>
+        <v>260600</v>
       </c>
       <c r="L70" s="3">
         <v>0</v>
@@ -3378,8 +3545,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3425,35 +3595,38 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-478700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-447400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-418900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-390200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-361000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-331600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-300300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-277100</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3472,8 +3645,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3519,8 +3695,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3566,8 +3745,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3613,35 +3795,38 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>105700</v>
+      </c>
+      <c r="E76" s="3">
         <v>133700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>75900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>100300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>126600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>152600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-264000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-242200</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3660,8 +3845,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3707,46 +3895,49 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3759,41 +3950,44 @@
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-31300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-28500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-28700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-29200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-29400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-31300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-23200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-18100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-97000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-14700</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3806,8 +4000,11 @@
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3825,41 +4022,42 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E83" s="3">
         <v>1600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>600</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3872,8 +4070,11 @@
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3919,8 +4120,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3966,8 +4170,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4013,8 +4220,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4060,8 +4270,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4107,41 +4320,44 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-22600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-27200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-23600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-26300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-24100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-26300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-17200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-17600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-56000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-9600</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4154,8 +4370,11 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4173,40 +4392,41 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3700</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-3400</v>
       </c>
       <c r="H91" s="3">
         <v>-3400</v>
       </c>
       <c r="I91" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="J91" s="3">
         <v>-2800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3400</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
@@ -4220,8 +4440,11 @@
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4267,8 +4490,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4314,41 +4540,44 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>21900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>12200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-9600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-106900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>20900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>31700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-70400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>8100</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4361,8 +4590,11 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4380,8 +4612,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4427,8 +4660,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4474,8 +4710,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4521,8 +4760,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4568,40 +4810,43 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E100" s="3">
         <v>82200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>167100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>126300</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
+      <c r="M100" s="3">
+        <v>0</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
@@ -4615,40 +4860,43 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>200</v>
-      </c>
-      <c r="H101" s="3">
-        <v>100</v>
       </c>
       <c r="I101" s="3">
         <v>100</v>
       </c>
       <c r="J101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
+      <c r="M101" s="3">
+        <v>0</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>3</v>
@@ -4662,41 +4910,44 @@
       <c r="Q101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-34400</v>
+      </c>
+      <c r="E102" s="3">
         <v>51400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-16600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-33100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>34000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>11500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1500</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4707,6 +4958,9 @@
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AFIB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AFIB_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,68 +665,70 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
@@ -736,47 +738,53 @@
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F8" s="3">
         <v>4400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>4600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>4700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>3600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>2600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>3200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>2800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>800</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
@@ -786,47 +794,53 @@
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E9" s="3">
+        <v>6900</v>
+      </c>
+      <c r="F9" s="3">
         <v>9900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>8500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>7500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>7000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>4900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>5100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>2700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>3200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>9200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>2200</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
@@ -836,47 +850,53 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E10" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F10" s="3">
         <v>-5500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>-3900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>-2800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>-3400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>-2300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>-1900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>-1600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>-1600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>-6400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>-1400</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
@@ -886,8 +906,14 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -906,47 +932,49 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E12" s="3">
+        <v>8000</v>
+      </c>
+      <c r="F12" s="3">
         <v>8800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>9300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>9200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>9400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>9000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>8300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>8200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>8000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>38000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>4400</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
@@ -956,8 +984,14 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1006,16 +1040,22 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>-35600</v>
+      </c>
+      <c r="E14" s="3">
+        <v>13000</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -1023,8 +1063,8 @@
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
@@ -1032,20 +1072,20 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>2200</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>3</v>
@@ -1056,8 +1096,14 @@
       <c r="R14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1106,8 +1152,14 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1123,47 +1175,49 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>42300</v>
+      </c>
+      <c r="F17" s="3">
         <v>34300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>31700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>32000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>31400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>30600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>29400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>20600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>19200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>76900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>10600</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1173,47 +1227,53 @@
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-38600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-29900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-27100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-27300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-27800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-28000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-26200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-19500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-17600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-74100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-9800</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1223,8 +1283,14 @@
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1243,8 +1309,10 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1264,26 +1332,26 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-3700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-2300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>900</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1293,47 +1361,53 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-36900</v>
+      </c>
+      <c r="F21" s="3">
         <v>-28200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-25400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-25600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-26400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-26800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-29000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-21200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-16200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-72200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-8400</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1343,25 +1417,31 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="E22" s="3">
         <v>1400</v>
       </c>
       <c r="F22" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="G22" s="3">
         <v>1400</v>
       </c>
       <c r="H22" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="I22" s="3">
         <v>1400</v>
@@ -1373,17 +1453,17 @@
         <v>1400</v>
       </c>
       <c r="L22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N22" s="3">
         <v>22300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>5700</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1393,47 +1473,53 @@
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-40000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-31300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-28500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-28700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-29200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-29400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-31300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-23200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-18100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-97000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-14700</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1443,8 +1529,14 @@
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1463,29 +1555,29 @@
       <c r="H24" s="3">
         <v>0</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
+      <c r="N24" s="3">
+        <v>0</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
+      <c r="P24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
@@ -1493,8 +1585,14 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1543,47 +1641,53 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-40000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-31300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-28500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-28700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-29200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-29400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-31300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-23200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-18100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-97000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-14700</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1593,47 +1697,53 @@
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-40000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-31300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-28500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-28700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-29200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-29400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-31300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-23200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-18100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-97000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-14700</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1643,8 +1753,14 @@
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1693,8 +1809,14 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1743,8 +1865,14 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1793,8 +1921,14 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1843,8 +1977,14 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1864,26 +2004,26 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>3700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>2300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-900</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1893,47 +2033,53 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-40000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-31300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-28500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-28700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-29200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-29400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-31300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-23200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-18100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-97000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-14700</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1943,8 +2089,14 @@
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1993,47 +2145,53 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-40000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-31300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-28500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-28700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-29200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-29400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-31300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-23200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-18100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-97000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-14700</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2043,52 +2201,58 @@
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2098,8 +2262,14 @@
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2118,8 +2288,10 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2138,41 +2310,43 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>46600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>12300</v>
+      </c>
+      <c r="F41" s="3">
         <v>24100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>58500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>7100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>8600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>25200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>58300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>24300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>21000</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2188,41 +2362,47 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>42400</v>
+      </c>
+      <c r="E42" s="3">
+        <v>62300</v>
+      </c>
+      <c r="F42" s="3">
         <v>76700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>72000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>73900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>86900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>105800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>99700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>5000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>28900</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2238,41 +2418,47 @@
       <c r="R42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E43" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F43" s="3">
         <v>3600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>4200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>3400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>2500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>2200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>1900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1000</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2288,41 +2474,47 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E44" s="3">
+        <v>17600</v>
+      </c>
+      <c r="F44" s="3">
         <v>16400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>15000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>14700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>13800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>13000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>10900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>12300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>10500</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2338,41 +2530,47 @@
       <c r="R44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>9200</v>
+      </c>
+      <c r="F45" s="3">
         <v>5500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>6200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>3000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>4300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>5200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>4800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>4000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1800</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2388,41 +2586,47 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>116100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>104400</v>
+      </c>
+      <c r="F46" s="3">
         <v>126300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>155800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>102100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>116100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>151400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>175700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>46400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>63100</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2438,35 +2642,41 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F47" s="3">
         <v>7100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>4100</v>
       </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
         <v>11200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>8700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>8800</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2479,50 +2689,56 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>0</v>
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>17300</v>
+      </c>
+      <c r="F48" s="3">
         <v>18200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>19300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>20200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>16100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>14000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>11800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>9600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>7600</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2538,41 +2754,47 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E49" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F49" s="3">
         <v>17000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>17200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>17400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>17500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>17700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>15800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>15900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>16000</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2588,8 +2810,14 @@
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2638,8 +2866,14 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2688,41 +2922,47 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F52" s="3">
         <v>1200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>1100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>1000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>1000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>400</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2738,8 +2978,14 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2788,41 +3034,47 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>138300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>131600</v>
+      </c>
+      <c r="F54" s="3">
         <v>169800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>197400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>140600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>161900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>192500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>212500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>72000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>87100</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2838,8 +3090,14 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2858,8 +3116,10 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2878,41 +3138,43 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F57" s="3">
         <v>7500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>6400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>5800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>6100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>8300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>4700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>9100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>7500</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2928,41 +3190,47 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F58" s="3">
         <v>1500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>2700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>2600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>5400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>4000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>3500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>3100</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2978,41 +3246,47 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>11100</v>
+      </c>
+      <c r="F59" s="3">
         <v>9500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>9900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>9400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>9800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>8200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>7400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>18700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>14200</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3028,41 +3302,47 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>17300</v>
+      </c>
+      <c r="F60" s="3">
         <v>18500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>18200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>17900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>18500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>21900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>16100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>31300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>24700</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3078,41 +3358,47 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>34600</v>
+      </c>
+      <c r="E61" s="3">
+        <v>41100</v>
+      </c>
+      <c r="F61" s="3">
         <v>40900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>40800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>42100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>42300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>42900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>42400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>42600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>42200</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3128,41 +3414,47 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E62" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F62" s="3">
         <v>4600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>4700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>4800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>1100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>1400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1800</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3178,8 +3470,14 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3228,8 +3526,14 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3278,8 +3582,14 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3328,41 +3638,47 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>61700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>62900</v>
+      </c>
+      <c r="F66" s="3">
         <v>64100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>63700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>64700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>61700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>66000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>59900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>75400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>68800</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3378,8 +3694,14 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3398,8 +3720,10 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3448,8 +3772,14 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3498,8 +3828,14 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3522,17 +3858,17 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>260600</v>
       </c>
-      <c r="K70" s="3">
+      <c r="M70" s="3">
         <v>260600</v>
       </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
@@ -3548,8 +3884,14 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3598,41 +3940,47 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-513000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-518700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-478700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-447400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-418900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-390200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-361000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-331600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-300300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-277100</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3648,8 +3996,14 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3698,8 +4052,14 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3748,8 +4108,14 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3798,41 +4164,47 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>76700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>68800</v>
+      </c>
+      <c r="F76" s="3">
         <v>105700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>133700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>75900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>100300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>126600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>152600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-264000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-242200</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3848,8 +4220,14 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3898,52 +4276,58 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3953,47 +4337,53 @@
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-40000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-31300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-28500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-28700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-29200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-29400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-31300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-23200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-18100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-97000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-14700</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4003,8 +4393,14 @@
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4023,8 +4419,10 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4032,38 +4430,38 @@
         <v>1700</v>
       </c>
       <c r="E83" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="F83" s="3">
         <v>1700</v>
       </c>
       <c r="G83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I83" s="3">
         <v>1400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>1100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>2500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>600</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4073,8 +4471,14 @@
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4123,8 +4527,14 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4173,8 +4583,14 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4223,8 +4639,14 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4273,8 +4695,14 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4323,47 +4751,53 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-27600</v>
+      </c>
+      <c r="F89" s="3">
         <v>-22600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-27200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-23600</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-26300</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-24100</v>
       </c>
       <c r="I89" s="3">
         <v>-26300</v>
       </c>
       <c r="J89" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="K89" s="3">
+        <v>-26300</v>
+      </c>
+      <c r="L89" s="3">
         <v>-17200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-17600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-56000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-9600</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4373,8 +4807,14 @@
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4393,46 +4833,48 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-3400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-2100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-3700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-3400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-3400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-2800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-1700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-3400</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
@@ -4443,8 +4885,14 @@
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4493,8 +4941,14 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4543,47 +4997,53 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>70700</v>
+      </c>
+      <c r="E94" s="3">
+        <v>16000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-11400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-3500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>21900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>12200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-9600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-106900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>20900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>31700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-70400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>8100</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4593,8 +5053,14 @@
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4613,8 +5079,10 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4663,8 +5131,14 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4713,8 +5187,14 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4763,8 +5243,14 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4813,46 +5299,52 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>82200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-2400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>167100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-2600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>126300</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
+      <c r="O100" s="3">
+        <v>0</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
@@ -4863,13 +5355,19 @@
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="E101" s="3">
         <v>-100</v>
@@ -4881,28 +5379,28 @@
         <v>-100</v>
       </c>
       <c r="H101" s="3">
+        <v>100</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J101" s="3">
         <v>200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O101" s="3" t="s">
-        <v>3</v>
+      <c r="O101" s="3">
+        <v>0</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>3</v>
@@ -4913,47 +5411,53 @@
       <c r="R101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>38200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="F102" s="3">
         <v>-34400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>51400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-1500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-16600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-33100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>34000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>3300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>11500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-1500</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4961,6 +5465,12 @@
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AFIB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AFIB_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,73 +665,74 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
@@ -744,50 +745,53 @@
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E8" s="3">
         <v>4100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>800</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
@@ -800,50 +804,53 @@
       <c r="T8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E9" s="3">
         <v>9700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>6900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>9900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>8500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>7500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>7000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>9200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2200</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
@@ -856,50 +863,53 @@
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E10" s="3">
         <v>-5600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-3200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-5500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-3900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-2800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-3400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-2300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-1900</v>
-      </c>
-      <c r="L10" s="3">
-        <v>-1600</v>
       </c>
       <c r="M10" s="3">
         <v>-1600</v>
       </c>
       <c r="N10" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="O10" s="3">
         <v>-6400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-1400</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
@@ -912,8 +922,11 @@
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -934,50 +947,51 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E12" s="3">
         <v>7900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>8000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>8800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>9300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>9200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>9400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>9000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>8300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>8200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>8000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>38000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>4400</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
@@ -990,8 +1004,11 @@
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1046,20 +1063,23 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E14" s="3">
         <v>-35600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>13000</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1069,26 +1089,26 @@
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>2200</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>3</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>3</v>
@@ -1102,8 +1122,11 @@
       <c r="T14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1158,8 +1181,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1177,50 +1203,51 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E17" s="3">
         <v>-2900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>42300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>34300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>31700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>32000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>31400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>30600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>29400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>20600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>19200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>76900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>10600</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1233,50 +1260,53 @@
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-20500</v>
+      </c>
+      <c r="E18" s="3">
         <v>7000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-38600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-29900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-27100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-27300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-27800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-28000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-26200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-19500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-17600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-74100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-9800</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1289,8 +1319,11 @@
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1311,13 +1344,14 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1338,23 +1372,23 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-3700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>900</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1367,50 +1401,53 @@
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="E21" s="3">
         <v>8700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-36900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-28200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-25400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-25600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-26400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-26800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-29000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-21200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-16200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-72200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-8400</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1423,16 +1460,19 @@
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E22" s="3">
         <v>1300</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1400</v>
       </c>
       <c r="F22" s="3">
         <v>1400</v>
@@ -1441,10 +1481,10 @@
         <v>1400</v>
       </c>
       <c r="H22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I22" s="3">
         <v>1500</v>
-      </c>
-      <c r="I22" s="3">
-        <v>1400</v>
       </c>
       <c r="J22" s="3">
         <v>1400</v>
@@ -1459,14 +1499,14 @@
         <v>1400</v>
       </c>
       <c r="N22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O22" s="3">
         <v>22300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>5700</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1479,50 +1519,53 @@
       <c r="T22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="E23" s="3">
         <v>5700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-40000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-31300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-28500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-28700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-29200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-29400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-31300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-23200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-18100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-97000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-14700</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1535,8 +1578,11 @@
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1561,14 +1607,14 @@
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
+      <c r="K24" s="3">
+        <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -1576,11 +1622,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>0</v>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R24" s="3">
         <v>0</v>
@@ -1591,8 +1637,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1647,50 +1696,53 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="E26" s="3">
         <v>5700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-40000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-31300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-28500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-28700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-29200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-29400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-31300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-23200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-18100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-97000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-14700</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1703,50 +1755,53 @@
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="E27" s="3">
         <v>5700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-40000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-31300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-28500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-28700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-29200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-29400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-31300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-23200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-18100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-97000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-14700</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1759,8 +1814,11 @@
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1815,8 +1873,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1871,8 +1932,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1927,8 +1991,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1983,13 +2050,16 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-1200</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2010,23 +2080,23 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>3700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-900</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2039,50 +2109,53 @@
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="E33" s="3">
         <v>5700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-40000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-31300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-28500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-28700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-29200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-29400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-31300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-23200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-18100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-97000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-14700</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2095,8 +2168,11 @@
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2151,50 +2227,53 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="E35" s="3">
         <v>5700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-40000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-31300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-28500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-28700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-29200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-29400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-31300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-23200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-18100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-97000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-14700</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2207,55 +2286,58 @@
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2268,8 +2350,11 @@
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2290,8 +2375,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2312,44 +2398,45 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E41" s="3">
         <v>46600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>12300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>24100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>58500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>7100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>25200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>58300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>24300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>21000</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2368,44 +2455,47 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>38300</v>
+      </c>
+      <c r="E42" s="3">
         <v>42400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>62300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>76700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>72000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>73900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>86900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>105800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>99700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>5000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>28900</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2424,44 +2514,47 @@
       <c r="T42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E43" s="3">
         <v>2600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1000</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2480,44 +2573,47 @@
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E44" s="3">
         <v>15300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>17600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>16400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>15000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>14700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>13800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>13000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>10900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>12300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>10500</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2536,44 +2632,47 @@
       <c r="T44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>9200</v>
+        <v>9800</v>
       </c>
       <c r="E45" s="3">
         <v>9200</v>
       </c>
       <c r="F45" s="3">
+        <v>9200</v>
+      </c>
+      <c r="G45" s="3">
         <v>5500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1800</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2592,44 +2691,47 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>93900</v>
+      </c>
+      <c r="E46" s="3">
         <v>116100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>104400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>126300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>155800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>102100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>116100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>151400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>175700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>46400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>63100</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2648,8 +2750,11 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2657,29 +2762,29 @@
         <v>0</v>
       </c>
       <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
         <v>4000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>7100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>4100</v>
       </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
       <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
         <v>11200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>8700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>8800</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2695,8 +2800,8 @@
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
+      <c r="R47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
@@ -2704,44 +2809,47 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E48" s="3">
         <v>15600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>17300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>18200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>19300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>20200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>16100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>14000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>11800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>9600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>7600</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2760,44 +2868,47 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E49" s="3">
         <v>1700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>17000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>17200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>17400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>17500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>17700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>15800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>15900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>16000</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2816,8 +2927,11 @@
       <c r="T49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2872,8 +2986,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2928,8 +3045,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2937,35 +3057,35 @@
         <v>5000</v>
       </c>
       <c r="E52" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F52" s="3">
         <v>1000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1100</v>
-      </c>
-      <c r="H52" s="3">
-        <v>1000</v>
       </c>
       <c r="I52" s="3">
         <v>1000</v>
       </c>
       <c r="J52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K52" s="3">
         <v>700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>400</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2984,8 +3104,11 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3040,44 +3163,47 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>114600</v>
+      </c>
+      <c r="E54" s="3">
         <v>138300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>131600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>169800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>197400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>140600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>161900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>192500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>212500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>72000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>87100</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3096,8 +3222,11 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3118,8 +3247,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3140,44 +3270,45 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E57" s="3">
         <v>8000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>7500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>8300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>9100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>7500</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3196,44 +3327,47 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E58" s="3">
         <v>1800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>5400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3100</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3252,44 +3386,47 @@
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E59" s="3">
         <v>13000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>11100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>9500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>9900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>9400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>9800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>8200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>18700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>14200</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3308,44 +3445,47 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E60" s="3">
         <v>22700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>17300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>18500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>18200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>17900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>18500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>21900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>16100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>31300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>24700</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3364,44 +3504,47 @@
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>34300</v>
+      </c>
+      <c r="E61" s="3">
         <v>34600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>41100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>40900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>40800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>42100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>42300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>42900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>42400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>42600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>42200</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3420,44 +3563,47 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E62" s="3">
         <v>4400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>4700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>4800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1800</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3476,8 +3622,11 @@
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3532,8 +3681,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3588,8 +3740,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3644,44 +3799,47 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>56800</v>
+      </c>
+      <c r="E66" s="3">
         <v>61700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>62900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>64100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>63700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>64700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>61700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>66000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>59900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>75400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>68800</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3700,8 +3858,11 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3722,8 +3883,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3778,8 +3940,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3834,8 +3999,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3864,13 +4032,13 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
-        <v>260600</v>
+        <v>0</v>
       </c>
       <c r="M70" s="3">
         <v>260600</v>
       </c>
       <c r="N70" s="3">
-        <v>0</v>
+        <v>260600</v>
       </c>
       <c r="O70" s="3">
         <v>0</v>
@@ -3890,8 +4058,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3946,44 +4117,47 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-533400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-513000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-518700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-478700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-447400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-418900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-390200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-361000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-331600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-300300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-277100</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4002,8 +4176,11 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4058,8 +4235,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4114,8 +4294,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4170,44 +4353,47 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>57800</v>
+      </c>
+      <c r="E76" s="3">
         <v>76700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>68800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>105700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>133700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>75900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>100300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>126600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>152600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-264000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-242200</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4226,8 +4412,11 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4282,55 +4471,58 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4343,50 +4535,53 @@
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="E81" s="3">
         <v>5700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-40000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-31300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-28500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-28700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-29200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-29400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-31300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-23200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-18100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-97000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-14700</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4399,8 +4594,11 @@
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4421,13 +4619,14 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="E83" s="3">
         <v>1700</v>
@@ -4436,35 +4635,35 @@
         <v>1700</v>
       </c>
       <c r="G83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H83" s="3">
         <v>1600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>600</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4477,8 +4676,11 @@
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4533,8 +4735,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4589,8 +4794,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4645,8 +4853,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4701,8 +4912,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4757,50 +4971,53 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-23800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-20600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-27600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-22600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-27200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-23600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-26300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-24100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-26300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-17200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-17600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-56000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-9600</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4813,8 +5030,11 @@
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4835,49 +5055,50 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3700</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-3400</v>
       </c>
       <c r="K91" s="3">
         <v>-3400</v>
       </c>
       <c r="L91" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="M91" s="3">
         <v>-2800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3400</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
@@ -4891,8 +5112,11 @@
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4947,8 +5171,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5003,50 +5230,53 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E94" s="3">
         <v>70700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>16000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-11400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>21900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>12200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-9600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-106900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>20900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>31700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-70400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>8100</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5059,8 +5289,11 @@
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5081,8 +5314,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5137,8 +5371,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5193,8 +5430,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5249,8 +5489,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5305,49 +5548,52 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-11600</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>82200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>167100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>126300</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
+      <c r="P100" s="3">
+        <v>0</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
@@ -5361,49 +5607,52 @@
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>200</v>
-      </c>
-      <c r="K101" s="3">
-        <v>100</v>
       </c>
       <c r="L101" s="3">
         <v>100</v>
       </c>
       <c r="M101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
-      <c r="P101" s="3" t="s">
-        <v>3</v>
+      <c r="P101" s="3">
+        <v>0</v>
       </c>
       <c r="Q101" s="3" t="s">
         <v>3</v>
@@ -5417,50 +5666,53 @@
       <c r="T101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-18600</v>
+      </c>
+      <c r="E102" s="3">
         <v>38200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-11800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-34400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>51400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-16600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-33100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>34000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>11500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1500</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5471,6 +5723,9 @@
         <v>3</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AFIB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AFIB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="92">
   <si>
     <t>AFIB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,80 +665,81 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
@@ -748,56 +749,62 @@
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F8" s="3">
         <v>3600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>4100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>3700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>4400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>4600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>4700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>3600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>3200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>2800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>800</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
@@ -807,56 +814,62 @@
       <c r="U8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>8300</v>
+      </c>
+      <c r="F9" s="3">
         <v>7000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>9700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>6900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>9900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>8500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>7500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>7000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>4900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>5100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>2700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>3200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>9200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>2200</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
@@ -866,56 +879,62 @@
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E10" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F10" s="3">
         <v>-3400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>-5600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>-3200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>-5500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>-3900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>-2800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>-3400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>-2300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>-1900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>-1600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>-1600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>-6400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
@@ -925,8 +944,14 @@
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -948,56 +973,58 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E12" s="3">
+        <v>6300</v>
+      </c>
+      <c r="F12" s="3">
         <v>5900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>7900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>8000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>8800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>9300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>9200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>9400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>9000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>8300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>8200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>8000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>38000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>4400</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1007,8 +1034,14 @@
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1066,34 +1099,40 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-35800</v>
+      </c>
+      <c r="F14" s="3">
         <v>1300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>-35600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>13000</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
@@ -1101,20 +1140,20 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>2200</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>3</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>3</v>
@@ -1125,8 +1164,14 @@
       <c r="U14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1184,8 +1229,14 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1204,56 +1255,58 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="F17" s="3">
         <v>24100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>-2900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>42300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>34300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>31700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>32000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>31400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>30600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>29400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>20600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>19200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>76900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>10600</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1263,56 +1316,62 @@
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>16900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-20500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>7000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-38600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-29900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-27100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-27300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-27800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-28000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-26200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-19500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-17600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-74100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-9800</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1322,8 +1381,14 @@
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1345,20 +1410,22 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F20" s="3">
         <v>1200</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1375,26 +1442,26 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-3700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-2300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>900</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1404,56 +1471,62 @@
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>18000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-17800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>8700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-36900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-28200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-25400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-25600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-26400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-26800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-29000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-21200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-16200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-72200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-8400</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1463,34 +1536,40 @@
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="E22" s="3">
         <v>1300</v>
       </c>
       <c r="F22" s="3">
-        <v>1400</v>
+        <v>1100</v>
       </c>
       <c r="G22" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="H22" s="3">
         <v>1400</v>
       </c>
       <c r="I22" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="J22" s="3">
         <v>1400</v>
       </c>
       <c r="K22" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="L22" s="3">
         <v>1400</v>
@@ -1502,17 +1581,17 @@
         <v>1400</v>
       </c>
       <c r="O22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="P22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Q22" s="3">
         <v>22300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>5700</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1522,56 +1601,62 @@
       <c r="U22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>15200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-20400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>5700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-40000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-31300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-28500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-28700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-29200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-29400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-31300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-23200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-18100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-97000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-14700</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1581,8 +1666,14 @@
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1590,7 +1681,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1610,29 +1701,29 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
+      <c r="Q24" s="3">
+        <v>0</v>
       </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
+      <c r="S24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T24" s="3">
         <v>0</v>
@@ -1640,8 +1731,14 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1699,56 +1796,62 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>15100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-20400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>5700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-40000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-31300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-28500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-28700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-29200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-29400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-31300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-23200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-18100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-97000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-14700</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1758,56 +1861,62 @@
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>15100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-20400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>5700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-40000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-31300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-28500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-28700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-29200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-29400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-31300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-23200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-18100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-97000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-14700</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1817,8 +1926,14 @@
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1876,8 +1991,14 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1935,8 +2056,14 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1994,8 +2121,14 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2053,20 +2186,26 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E32" s="3">
+        <v>300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1200</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -2083,26 +2222,26 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>3700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>2300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-900</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2112,56 +2251,62 @@
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>15100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-20400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>5700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-40000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-31300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-28500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-28700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-29200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-29400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-31300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-23200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-18100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-97000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-14700</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2171,8 +2316,14 @@
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2230,56 +2381,62 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>15100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-20400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>5700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-40000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-31300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-28500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-28700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-29200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-29400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-31300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-23200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-18100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-97000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-14700</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2289,61 +2446,67 @@
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2353,8 +2516,14 @@
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2376,8 +2545,10 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2399,50 +2570,52 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>25600</v>
+      </c>
+      <c r="F41" s="3">
         <v>28000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>46600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>12300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>24100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>58500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>7100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>8600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>25200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>58300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>24300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>21000</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2458,50 +2631,56 @@
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>46800</v>
+      </c>
+      <c r="E42" s="3">
+        <v>44900</v>
+      </c>
+      <c r="F42" s="3">
         <v>38300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>42400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>62300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>76700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>72000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>73900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>86900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>105800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>99700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>5000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>28900</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2517,50 +2696,56 @@
       <c r="U42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E43" s="3">
+        <v>21100</v>
+      </c>
+      <c r="F43" s="3">
         <v>3200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>2600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>3000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>3600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>4200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>3400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>2500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>2200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1000</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2576,50 +2761,56 @@
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E44" s="3">
+        <v>13300</v>
+      </c>
+      <c r="F44" s="3">
         <v>14600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>15300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>17600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>16400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>15000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>14700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>13800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>13000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>10900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>12300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>10500</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2635,50 +2826,56 @@
       <c r="U44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E45" s="3">
+        <v>13000</v>
+      </c>
+      <c r="F45" s="3">
         <v>9800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>9200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>9200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>5500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>6200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>3000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>4300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>5200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>4800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>4000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1800</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2694,50 +2891,56 @@
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>101800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>117900</v>
+      </c>
+      <c r="F46" s="3">
         <v>93900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>116100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>104400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>126300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>155800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>102100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>116100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>151400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>175700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>46400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>63100</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2753,44 +2956,50 @@
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>0</v>
+      <c r="D47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E47" s="3">
         <v>0</v>
       </c>
       <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
         <v>4000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>7100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>4100</v>
       </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
         <v>11200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>8700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>8800</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2803,59 +3012,65 @@
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S47" s="3">
-        <v>0</v>
-      </c>
-      <c r="T47" s="3">
-        <v>0</v>
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E48" s="3">
+        <v>13100</v>
+      </c>
+      <c r="F48" s="3">
         <v>14100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>15600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>17300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>18200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>19300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>20200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>16100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>14000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>11800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>9600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>7600</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2871,50 +3086,56 @@
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E49" s="3">
         <v>1600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G49" s="3">
         <v>1700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>4900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>17000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>17200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>17400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>17500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>17700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>15800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>15900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>16000</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2930,8 +3151,14 @@
       <c r="U49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2989,8 +3216,14 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3048,50 +3281,56 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>800</v>
+      </c>
+      <c r="E52" s="3">
+        <v>900</v>
+      </c>
+      <c r="F52" s="3">
         <v>5000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>5000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>1000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>1200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>1100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>1000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>400</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3107,8 +3346,14 @@
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3166,50 +3411,56 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>116000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>133400</v>
+      </c>
+      <c r="F54" s="3">
         <v>114600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>138300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>131600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>169800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>197400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>140600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>161900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>192500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>212500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>72000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>87100</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3225,8 +3476,14 @@
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3248,8 +3505,10 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3271,50 +3530,52 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F57" s="3">
         <v>4600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>8000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>4800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>7500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>6400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>5800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>6100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>8300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>4700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>9100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>7500</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3330,50 +3591,56 @@
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="E58" s="3">
         <v>1800</v>
       </c>
       <c r="F58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G58" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H58" s="3">
         <v>1400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>1500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>1900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>2700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>2600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>5400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>4000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>3500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>3100</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3389,50 +3656,56 @@
       <c r="U58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>13400</v>
+      </c>
+      <c r="F59" s="3">
         <v>11800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>13000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>11100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>9500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>9900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>9400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>9800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>8200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>7400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>18700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>14200</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3448,50 +3721,56 @@
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>19900</v>
+      </c>
+      <c r="F60" s="3">
         <v>18300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>22700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>17300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>18500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>18200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>17900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>18500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>21900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>16100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>31300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>24700</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3507,50 +3786,56 @@
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>34500</v>
+      </c>
+      <c r="E61" s="3">
+        <v>34400</v>
+      </c>
+      <c r="F61" s="3">
         <v>34300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>34600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>41100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>40900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>40800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>42100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>42300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>42900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>42400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>42600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>42200</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3566,50 +3851,56 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E62" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F62" s="3">
         <v>4200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>4400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>4500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>4600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>4700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>4800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>1400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>1600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>1800</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3625,8 +3916,14 @@
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3684,8 +3981,14 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3743,8 +4046,14 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3802,50 +4111,56 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>55500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>58400</v>
+      </c>
+      <c r="F66" s="3">
         <v>56800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>61700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>62900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>64100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>63700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>64700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>61700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>66000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>59900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>75400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>68800</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3861,8 +4176,14 @@
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3884,8 +4205,10 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3943,8 +4266,14 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4002,8 +4331,14 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4035,17 +4370,17 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
         <v>260600</v>
       </c>
-      <c r="N70" s="3">
+      <c r="P70" s="3">
         <v>260600</v>
       </c>
-      <c r="O70" s="3">
-        <v>0</v>
-      </c>
-      <c r="P70" s="3">
-        <v>0</v>
-      </c>
       <c r="Q70" s="3">
         <v>0</v>
       </c>
@@ -4061,8 +4396,14 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4120,50 +4461,56 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-534600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-518300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-533400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-513000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-518700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-478700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-447400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-418900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-390200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-361000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-331600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-300300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-277100</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4179,8 +4526,14 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4238,8 +4591,14 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4297,8 +4656,14 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4356,50 +4721,56 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>60500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>75000</v>
+      </c>
+      <c r="F76" s="3">
         <v>57800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>76700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>68800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>105700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>133700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>75900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>100300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>126600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>152600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-264000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-242200</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4415,8 +4786,14 @@
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4474,61 +4851,67 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4538,56 +4921,62 @@
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>15100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-20400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>5700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-40000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-31300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-28500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-28700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-29200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-29400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-31300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-23200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-18100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-97000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-14700</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4597,8 +4986,14 @@
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4620,56 +5015,58 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E83" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F83" s="3">
         <v>1600</v>
-      </c>
-      <c r="E83" s="3">
-        <v>1700</v>
-      </c>
-      <c r="F83" s="3">
-        <v>1700</v>
       </c>
       <c r="G83" s="3">
         <v>1700</v>
       </c>
       <c r="H83" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="I83" s="3">
         <v>1700</v>
       </c>
       <c r="J83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L83" s="3">
         <v>1400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>1100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>2500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>600</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4679,8 +5076,14 @@
       <c r="U83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4738,8 +5141,14 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4797,8 +5206,14 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4856,8 +5271,14 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4915,8 +5336,14 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4974,56 +5401,62 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="F89" s="3">
         <v>-23800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-20600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-27600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-22600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-27200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-23600</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-26300</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-24100</v>
       </c>
       <c r="L89" s="3">
         <v>-26300</v>
       </c>
       <c r="M89" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="N89" s="3">
+        <v>-26300</v>
+      </c>
+      <c r="O89" s="3">
         <v>-17200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-17600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-56000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-9600</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5033,8 +5466,14 @@
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5056,55 +5495,57 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F91" s="3">
         <v>-800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-1100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-3400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-2100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-3700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-3400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-3400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-2800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-1700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-3400</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>3</v>
@@ -5115,8 +5556,14 @@
       <c r="U91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5174,8 +5621,14 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5233,56 +5686,62 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>12200</v>
+      </c>
+      <c r="F94" s="3">
         <v>5900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>70700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>16000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-11400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-3500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>21900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>12200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-9600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-106900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>20900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>31700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-70400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>8100</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5292,8 +5751,14 @@
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5315,8 +5780,10 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5374,8 +5841,14 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5433,8 +5906,14 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5492,8 +5971,14 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5551,55 +6036,61 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-11600</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>82200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-2400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>167100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-2600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>126300</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
+      <c r="R100" s="3">
+        <v>0</v>
       </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
@@ -5610,22 +6101,28 @@
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E101" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F101" s="3">
         <v>-100</v>
       </c>
       <c r="G101" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="H101" s="3">
         <v>-100</v>
@@ -5637,28 +6134,28 @@
         <v>-100</v>
       </c>
       <c r="K101" s="3">
+        <v>100</v>
+      </c>
+      <c r="L101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M101" s="3">
         <v>200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R101" s="3" t="s">
-        <v>3</v>
+      <c r="R101" s="3">
+        <v>0</v>
       </c>
       <c r="S101" s="3" t="s">
         <v>3</v>
@@ -5669,56 +6166,62 @@
       <c r="U101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F102" s="3">
         <v>-18600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>38200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-11800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-34400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>51400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-1500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-16600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-33100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>34000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>3300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>11500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5726,6 +6229,12 @@
         <v>3</v>
       </c>
       <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AFIB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AFIB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="92">
   <si>
     <t>AFIB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,84 +665,85 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
@@ -755,59 +756,62 @@
       <c r="W7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E8" s="3">
         <v>4200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>800</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T8" s="3" t="s">
         <v>3</v>
       </c>
@@ -820,59 +824,62 @@
       <c r="W8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E9" s="3">
         <v>6800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>8300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>7000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>9700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>6900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>9900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>8500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>9200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2200</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
@@ -885,59 +892,62 @@
       <c r="W9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E10" s="3">
         <v>-2600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-3300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-3400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-5600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-3200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-5500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-3900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-2800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-3400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-2300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-1900</v>
-      </c>
-      <c r="O10" s="3">
-        <v>-1600</v>
       </c>
       <c r="P10" s="3">
         <v>-1600</v>
       </c>
       <c r="Q10" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="R10" s="3">
         <v>-6400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-1400</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
@@ -950,8 +960,11 @@
       <c r="W10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,59 +988,60 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E12" s="3">
         <v>6100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>6300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>5900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>7900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>8000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>8800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>9300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>9200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>9400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>9000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>8300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>8200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>8000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>38000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>4400</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1040,8 +1054,11 @@
       <c r="W12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1105,29 +1122,32 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E14" s="3">
         <v>-1200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-35800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-35600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>13000</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1137,26 +1157,26 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>2200</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>3</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>3</v>
@@ -1170,8 +1190,11 @@
       <c r="W14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1235,8 +1258,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1257,59 +1283,60 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E17" s="3">
         <v>21500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>-11900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>24100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>-2900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>42300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>34300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>31700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>32000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>31400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>30600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>29400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>20600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>19200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>76900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>10600</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1322,59 +1349,62 @@
       <c r="W17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-17300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>16900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-20500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>7000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-38600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-29900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-27100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-27300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-27800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-28000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-26200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-19500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-17600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-74100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-9800</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1387,8 +1417,11 @@
       <c r="W18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1412,23 +1445,24 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
         <v>2300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1200</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1448,23 +1482,23 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-3700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>900</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1477,59 +1511,62 @@
       <c r="W20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-13700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>18000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-17800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>8700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-36900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-28200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-25400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-25600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-26400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-26800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-29000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-21200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-16200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-72200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-8400</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1542,25 +1579,28 @@
       <c r="W21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="E22" s="3">
         <v>1300</v>
       </c>
       <c r="F22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G22" s="3">
         <v>1100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1300</v>
-      </c>
-      <c r="H22" s="3">
-        <v>1400</v>
       </c>
       <c r="I22" s="3">
         <v>1400</v>
@@ -1569,10 +1609,10 @@
         <v>1400</v>
       </c>
       <c r="K22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L22" s="3">
         <v>1500</v>
-      </c>
-      <c r="L22" s="3">
-        <v>1400</v>
       </c>
       <c r="M22" s="3">
         <v>1400</v>
@@ -1587,14 +1627,14 @@
         <v>1400</v>
       </c>
       <c r="Q22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R22" s="3">
         <v>22300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>5700</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1607,59 +1647,62 @@
       <c r="W22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-16300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>15200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-20400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>5700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-40000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-31300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-28500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-28700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-29200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-29400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-31300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-23200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-18100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-97000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-14700</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1672,8 +1715,11 @@
       <c r="W23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1681,11 +1727,11 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
@@ -1707,14 +1753,14 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
+      <c r="N24" s="3">
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
+      <c r="P24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
@@ -1722,11 +1768,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T24" s="3">
-        <v>0</v>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U24" s="3">
         <v>0</v>
@@ -1737,8 +1783,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1802,59 +1851,62 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-16300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>15100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-20400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>5700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-40000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-31300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-28500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-28700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-29200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-29400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-31300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-23200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-18100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-97000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-14700</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1867,59 +1919,62 @@
       <c r="W26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-16300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>15100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-20400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>5700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-40000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-31300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-28500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-28700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-29200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-29400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-31300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-23200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-18100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-97000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-14700</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1932,8 +1987,11 @@
       <c r="W27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1997,8 +2055,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2062,8 +2123,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2127,8 +2191,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2192,23 +2259,26 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1200</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2228,23 +2298,23 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>3700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-900</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2257,59 +2327,62 @@
       <c r="W32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-16300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>15100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-20400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>5700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-40000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-31300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-28500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-28700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-29200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-29400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-31300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-23200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-18100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-97000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-14700</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2322,8 +2395,11 @@
       <c r="W33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2387,59 +2463,62 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-16300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>15100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-20400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>5700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-40000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-31300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-28500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-28700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-29200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-29400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-31300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-23200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-18100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-97000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-14700</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2452,64 +2531,67 @@
       <c r="W35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2522,8 +2604,11 @@
       <c r="W38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2547,8 +2632,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2572,53 +2658,54 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>23100</v>
+      </c>
+      <c r="E41" s="3">
         <v>22700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>25600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>28000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>46600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>12300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>24100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>58500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>25200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>58300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>24300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>21000</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2637,53 +2724,56 @@
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>31500</v>
+      </c>
+      <c r="E42" s="3">
         <v>46800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>44900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>38300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>42400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>62300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>76700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>72000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>73900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>86900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>105800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>99700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>5000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>28900</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2702,53 +2792,56 @@
       <c r="W42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E43" s="3">
         <v>5300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>21100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1000</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2767,53 +2860,56 @@
       <c r="W43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E44" s="3">
         <v>14900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>13300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>14600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>15300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>17600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>16400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>15000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>14700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>13800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>13000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>10900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>12300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>10500</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2832,53 +2928,56 @@
       <c r="W44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E45" s="3">
         <v>11900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>13000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>9800</v>
-      </c>
-      <c r="G45" s="3">
-        <v>9200</v>
       </c>
       <c r="H45" s="3">
         <v>9200</v>
       </c>
       <c r="I45" s="3">
+        <v>9200</v>
+      </c>
+      <c r="J45" s="3">
         <v>5500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>6200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1800</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2897,53 +2996,56 @@
       <c r="W45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>87300</v>
+      </c>
+      <c r="E46" s="3">
         <v>101800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>117900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>93900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>116100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>104400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>126300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>155800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>102100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>116100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>151400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>175700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>46400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>63100</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2962,16 +3064,19 @@
       <c r="W46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
@@ -2980,29 +3085,29 @@
         <v>0</v>
       </c>
       <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
         <v>4000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>7100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>4100</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
       <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
         <v>11200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>8700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>8800</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3018,8 +3123,8 @@
       <c r="T47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U47" s="3">
-        <v>0</v>
+      <c r="U47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V47" s="3">
         <v>0</v>
@@ -3027,53 +3132,56 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E48" s="3">
         <v>11900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>13100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>14100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>15600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>17300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>18200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>19300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>20200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>16100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>14000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>11800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>9600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>7600</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3092,8 +3200,11 @@
       <c r="W48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3101,44 +3212,44 @@
         <v>1500</v>
       </c>
       <c r="E49" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="F49" s="3">
         <v>1600</v>
       </c>
       <c r="G49" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H49" s="3">
         <v>1700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>17000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>17200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>17400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>17500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>17700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>15800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>15900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>16000</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3157,8 +3268,11 @@
       <c r="W49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3222,8 +3336,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3287,53 +3404,56 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>700</v>
+      </c>
+      <c r="E52" s="3">
         <v>800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>900</v>
-      </c>
-      <c r="F52" s="3">
-        <v>5000</v>
       </c>
       <c r="G52" s="3">
         <v>5000</v>
       </c>
       <c r="H52" s="3">
+        <v>5000</v>
+      </c>
+      <c r="I52" s="3">
         <v>1000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1100</v>
-      </c>
-      <c r="K52" s="3">
-        <v>1000</v>
       </c>
       <c r="L52" s="3">
         <v>1000</v>
       </c>
       <c r="M52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N52" s="3">
         <v>700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>400</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3352,8 +3472,11 @@
       <c r="W52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3417,53 +3540,56 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>100300</v>
+      </c>
+      <c r="E54" s="3">
         <v>116000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>133400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>114600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>138300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>131600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>169800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>197400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>140600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>161900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>192500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>212500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>72000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>87100</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3482,8 +3608,11 @@
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3507,8 +3636,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3532,53 +3662,54 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E57" s="3">
         <v>5600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>8000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>7500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>6400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>6100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>8300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>9100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>7500</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3597,53 +3728,56 @@
       <c r="W57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>2000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3100</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3662,53 +3796,56 @@
       <c r="W58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E59" s="3">
         <v>9500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>13400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>11800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>13000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>11100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>9500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>9900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>9800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>8200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>7400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>18700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>14200</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3727,53 +3864,56 @@
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E60" s="3">
         <v>17100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>19900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>18300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>22700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>17300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>18500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>18200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>17900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>18500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>21900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>16100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>31300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>24700</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3792,53 +3932,56 @@
       <c r="W60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>34600</v>
+      </c>
+      <c r="E61" s="3">
         <v>34500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>34400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>34300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>34600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>41100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>40900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>40800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>42100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>42300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>42900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>42400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>42600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>42200</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -3857,53 +4000,56 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E62" s="3">
         <v>3900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>4400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>4500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>4600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>4700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1800</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3922,8 +4068,11 @@
       <c r="W62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3987,8 +4136,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4052,8 +4204,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4117,53 +4272,56 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>56600</v>
+      </c>
+      <c r="E66" s="3">
         <v>55500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>58400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>56800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>61700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>62900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>64100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>63700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>64700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>61700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>66000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>59900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>75400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>68800</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4182,8 +4340,11 @@
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4207,8 +4368,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4272,8 +4434,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4337,8 +4502,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4376,13 +4544,13 @@
         <v>0</v>
       </c>
       <c r="O70" s="3">
-        <v>260600</v>
+        <v>0</v>
       </c>
       <c r="P70" s="3">
         <v>260600</v>
       </c>
       <c r="Q70" s="3">
-        <v>0</v>
+        <v>260600</v>
       </c>
       <c r="R70" s="3">
         <v>0</v>
@@ -4402,8 +4570,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4467,53 +4638,56 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-553000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-534600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-518300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-533400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-513000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-518700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-478700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-447400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-418900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-390200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-361000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-331600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-300300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-277100</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4532,8 +4706,11 @@
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4597,8 +4774,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4662,8 +4842,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4727,53 +4910,56 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>43700</v>
+      </c>
+      <c r="E76" s="3">
         <v>60500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>75000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>57800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>76700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>68800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>105700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>133700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>75900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>100300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>126600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>152600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-264000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-242200</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4792,8 +4978,11 @@
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4857,64 +5046,67 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4927,59 +5119,62 @@
       <c r="W80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-16300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>15100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-20400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>5700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-40000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-31300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-28500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-28700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-29200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-29400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-31300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-23200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-18100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-97000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-14700</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4992,8 +5187,11 @@
       <c r="W81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5017,22 +5215,23 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E83" s="3">
         <v>1300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1600</v>
-      </c>
-      <c r="G83" s="3">
-        <v>1700</v>
       </c>
       <c r="H83" s="3">
         <v>1700</v>
@@ -5041,35 +5240,35 @@
         <v>1700</v>
       </c>
       <c r="J83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K83" s="3">
         <v>1600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>2500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>600</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
@@ -5082,8 +5281,11 @@
       <c r="W83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5147,8 +5349,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5212,8 +5417,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5277,8 +5485,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5342,8 +5553,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5407,59 +5621,62 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-16500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-13000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-23800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-20600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-27600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-22600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-27200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-23600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-26300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-24100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-26300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-17200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-17600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-56000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-9600</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5472,8 +5689,11 @@
       <c r="W89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5497,58 +5717,59 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3700</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-3400</v>
       </c>
       <c r="N91" s="3">
         <v>-3400</v>
       </c>
       <c r="O91" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="P91" s="3">
         <v>-2800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3400</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-      <c r="S91" s="3" t="s">
-        <v>3</v>
+      <c r="S91" s="3">
+        <v>0</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>3</v>
@@ -5562,8 +5783,11 @@
       <c r="W91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5627,8 +5851,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5692,59 +5919,62 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E94" s="3">
         <v>15200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>12200</v>
       </c>
-      <c r="F94" s="3">
-        <v>5900</v>
-      </c>
       <c r="G94" s="3">
-        <v>70700</v>
+        <v>3400</v>
       </c>
       <c r="H94" s="3">
+        <v>73200</v>
+      </c>
+      <c r="I94" s="3">
         <v>16000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-11400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>21900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>12200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-9600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-106900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>20900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>31700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-70400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>8100</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5757,8 +5987,11 @@
       <c r="W94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5782,8 +6015,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5847,8 +6081,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5912,8 +6149,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5977,8 +6217,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6042,58 +6285,61 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>-200</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-11600</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>82200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>167100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>126300</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
+      <c r="S100" s="3">
+        <v>0</v>
       </c>
       <c r="T100" s="3" t="s">
         <v>3</v>
@@ -6107,58 +6353,61 @@
       <c r="W100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>200</v>
-      </c>
-      <c r="N101" s="3">
-        <v>100</v>
       </c>
       <c r="O101" s="3">
         <v>100</v>
       </c>
       <c r="P101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
-      <c r="S101" s="3" t="s">
-        <v>3</v>
+      <c r="S101" s="3">
+        <v>0</v>
       </c>
       <c r="T101" s="3" t="s">
         <v>3</v>
@@ -6172,59 +6421,62 @@
       <c r="W101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-18600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>38200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-11800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-34400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>51400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-16600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-33100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>34000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>11500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1500</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
@@ -6235,6 +6487,9 @@
         <v>3</v>
       </c>
       <c r="W102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
